--- a/examples/XlsxPeasant_08_tables.xlsx
+++ b/examples/XlsxPeasant_08_tables.xlsx
@@ -1,42 +1,29 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Arkusze</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>1</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="1" baseType="lpstr">
-      <vt:lpstr>Tables Test</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <Company/>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Tables Test" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Karol Nowakowski</dc:creator>
-  <cp:lastModifiedBy>Karol Nowakowski</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2019-04-23T10:00:38Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2019-04-23T10:00:47Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>first name</t>
@@ -155,8 +142,11 @@
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;" numFmtId="5"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,31 +204,31 @@
 </styleSheet>
 </file>
 
-<file path=xl\tables\table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3004533-66AC-4965-8A87-B820821D66CD}" name="Workers" displayName="Workers" ref="A1:D11" totalsRowShown="10">
-  <autoFilter ref="A1:D11" xr:uid="{28B24425-53F8-42A4-A0EF-FE17BDF57F83}"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{177C7C99-977F-4FFB-B677-04307879EECB}" name="Workers" displayName="Workers" ref="A1:D11" totalsRowShown="10">
+  <autoFilter ref="A1:D11" xr:uid="{2F853772-D334-4905-B7C8-2D945AA7009D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A81E11C3-0E3C-43C6-80F6-631553A8B710}" name="first name"/>
-    <tableColumn id="2" xr3:uid="{AE361D45-9942-478C-96CD-57F93133F38A}" name="surname"/>
-    <tableColumn id="3" xr3:uid="{D60242CF-A151-4F55-857D-C31FAE9826CF}" name="department"/>
-    <tableColumn id="4" xr3:uid="{18283D5E-F3A7-4040-B4A9-442658579AF9}" name="age"/>
+    <tableColumn id="1" xr3:uid="{03A7B197-A28C-45BC-BAF4-07AB576C5F62}" name="first name"/>
+    <tableColumn id="2" xr3:uid="{7D2F64CD-99F2-404A-83D8-81C80F305A5B}" name="surname"/>
+    <tableColumn id="3" xr3:uid="{60D29109-ABE0-4E28-BA19-B17AA65CE501}" name="department"/>
+    <tableColumn id="4" xr3:uid="{F965F1E7-16DE-4BD6-9181-870AFDB8B65C}" name="age"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl\tables\table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA696816-3B78-4C55-9849-373B8BCE1743}" name="Dep.Phones" displayName="Dep.Phones" ref="G2:H6" totalsRowShown="4">
-  <autoFilter ref="G2:H6" xr:uid="{FDA2C6D9-AAC0-4F81-BA82-D1B37C42B71B}"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B9C277A-B98C-4F19-8F0F-D55AEEAC3196}" name="Dep.Phones" displayName="Dep.Phones" ref="G2:H6" totalsRowShown="4">
+  <autoFilter ref="G2:H6" xr:uid="{905526BE-7270-441A-8E48-6FD941E07702}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A4D70267-56CA-470A-8969-DF1B5CEC9173}" name="department"/>
-    <tableColumn id="2" xr3:uid="{EA575AB0-7B64-4B7B-A300-D57A22D95D16}" name="phone"/>
+    <tableColumn id="1" xr3:uid="{B28C7938-F432-4F1B-99E5-DB5145B05351}" name="department"/>
+    <tableColumn id="2" xr3:uid="{C6736EE1-6390-4C8E-83CB-7FB1C62879ED}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
@@ -533,33 +523,8 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowakowski\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31A1446-E08E-47BC-8584-29124A2247F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Tables Test" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47597F5-C457-40A6-92FD-FFF054744CC3}">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA192047-DB92-4A6B-8AD2-953ED5CC7570}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_08_tables.xlsx
+++ b/examples/XlsxPeasant_08_tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>first name</t>
   </si>
@@ -38,6 +38,12 @@
     <t>age</t>
   </si>
   <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>readiness</t>
+  </si>
+  <si>
     <t>Jacob</t>
   </si>
   <si>
@@ -47,9 +53,6 @@
     <t>Training</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Research and Development</t>
   </si>
   <si>
@@ -77,9 +77,6 @@
     <t>Knox</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>11122234</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Wallace</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>Services</t>
   </si>
   <si>
@@ -119,16 +113,10 @@
     <t>Manning</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Adam</t>
   </si>
   <si>
     <t>Blake</t>
-  </si>
-  <si>
-    <t>25</t>
   </si>
   <si>
     <t>White</t>
@@ -144,8 +132,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;" numFmtId="5"/>
+    <numFmt formatCode="#,##0\ &quot;ys&quot; ;-#,##0\ &quot;ys&quot; " numFmtId="1"/>
+    <numFmt formatCode="yyyy\-mm\-dd;@" numFmtId="2"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -184,9 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -205,24 +198,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{177C7C99-977F-4FFB-B677-04307879EECB}" name="Workers" displayName="Workers" ref="A1:D11" totalsRowShown="10">
-  <autoFilter ref="A1:D11" xr:uid="{2F853772-D334-4905-B7C8-2D945AA7009D}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{03A7B197-A28C-45BC-BAF4-07AB576C5F62}" name="first name"/>
-    <tableColumn id="2" xr3:uid="{7D2F64CD-99F2-404A-83D8-81C80F305A5B}" name="surname"/>
-    <tableColumn id="3" xr3:uid="{60D29109-ABE0-4E28-BA19-B17AA65CE501}" name="department"/>
-    <tableColumn id="4" xr3:uid="{F965F1E7-16DE-4BD6-9181-870AFDB8B65C}" name="age"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94CA1B37-0B1E-4600-A0A4-A3763CD6FD5D}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
+  <autoFilter ref="A1:F11" xr:uid="{0541DA6A-62F2-46DE-A2B6-E8E1000C38C2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{11E46E88-D78E-499E-8740-16316B6D25BE}" name="first name"/>
+    <tableColumn id="2" xr3:uid="{8FA3B7FF-CDB2-4E0F-BE23-BF151037499F}" name="surname"/>
+    <tableColumn id="3" xr3:uid="{3DDA774D-5B1C-4F21-B650-3CC9DFEA9909}" name="department"/>
+    <tableColumn id="4" xr3:uid="{4AF2B630-40E3-494B-844C-D0241E2CE968}" name="age"/>
+    <tableColumn id="5" xr3:uid="{3890DD26-6962-4096-9A2D-BAC586D121A7}" name="exam"/>
+    <tableColumn id="6" xr3:uid="{2648EFB6-A9A5-497F-9E8B-F1C980268C69}" name="readiness"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B9C277A-B98C-4F19-8F0F-D55AEEAC3196}" name="Dep.Phones" displayName="Dep.Phones" ref="G2:H6" totalsRowShown="4">
-  <autoFilter ref="G2:H6" xr:uid="{905526BE-7270-441A-8E48-6FD941E07702}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A407122-E50A-46E6-A28C-0243B506C7CA}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
+  <autoFilter ref="H2:I6" xr:uid="{22A3A811-D51A-43A7-A596-F1918DBD27A6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B28C7938-F432-4F1B-99E5-DB5145B05351}" name="department"/>
-    <tableColumn id="2" xr3:uid="{C6736EE1-6390-4C8E-83CB-7FB1C62879ED}" name="phone"/>
+    <tableColumn id="1" xr3:uid="{6BF6A46E-0038-4F20-8A33-B2618E596346}" name="department"/>
+    <tableColumn id="2" xr3:uid="{130EA08D-3DF1-4B74-934E-9A6C4F3764E0}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -524,14 +519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA192047-DB92-4A6B-8AD2-953ED5CC7570}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830E9668-4C11-4380-A169-BCA6659737A7}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,48 +539,66 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43461</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="2">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43462</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -595,131 +608,212 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43463</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43464</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43465</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43466</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43467</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43468</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E10" s="3">
+        <v>43469</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
+      <c r="E11" s="3">
+        <v>43460</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1D1627CC-5FDE-48EA-B398-F01261DC7DAA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule id="{1D1627CC-5FDE-48EA-B398-F01261DC7DAA}" type="dataBar">
+            <x14:dataBar border="1" maxLength="100" minLength="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2 F3 F4 F5 F6 F7 F8 F9 F10 F11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/examples/XlsxPeasant_08_tables.xlsx
+++ b/examples/XlsxPeasant_08_tables.xlsx
@@ -198,26 +198,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94CA1B37-0B1E-4600-A0A4-A3763CD6FD5D}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
-  <autoFilter ref="A1:F11" xr:uid="{0541DA6A-62F2-46DE-A2B6-E8E1000C38C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6C7C19B-8235-4BAB-936B-ED0178D9B951}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
+  <autoFilter ref="A1:F11" xr:uid="{AE3EDA45-1745-4E6A-B152-C7BEB1C688F9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11E46E88-D78E-499E-8740-16316B6D25BE}" name="first name"/>
-    <tableColumn id="2" xr3:uid="{8FA3B7FF-CDB2-4E0F-BE23-BF151037499F}" name="surname"/>
-    <tableColumn id="3" xr3:uid="{3DDA774D-5B1C-4F21-B650-3CC9DFEA9909}" name="department"/>
-    <tableColumn id="4" xr3:uid="{4AF2B630-40E3-494B-844C-D0241E2CE968}" name="age"/>
-    <tableColumn id="5" xr3:uid="{3890DD26-6962-4096-9A2D-BAC586D121A7}" name="exam"/>
-    <tableColumn id="6" xr3:uid="{2648EFB6-A9A5-497F-9E8B-F1C980268C69}" name="readiness"/>
+    <tableColumn id="1" xr3:uid="{D6F83575-5086-4A10-AB42-72E8AF64BED0}" name="first name"/>
+    <tableColumn id="2" xr3:uid="{EC2F71AD-4FFE-4D96-9A50-F26E4937EC66}" name="surname"/>
+    <tableColumn id="3" xr3:uid="{C794074C-838A-4BC7-90BB-9E3D09676FF5}" name="department"/>
+    <tableColumn id="4" xr3:uid="{5A2E3D35-519A-4E90-9D0F-8E19C8D70D3C}" name="age"/>
+    <tableColumn id="5" xr3:uid="{8578B015-DB46-4BAC-9700-AC329DA19FC4}" name="exam"/>
+    <tableColumn id="6" xr3:uid="{E7737F58-CB06-4893-B5AE-B0EBD81CD330}" name="readiness"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A407122-E50A-46E6-A28C-0243B506C7CA}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
-  <autoFilter ref="H2:I6" xr:uid="{22A3A811-D51A-43A7-A596-F1918DBD27A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31A50489-85D5-4860-BB9E-DA958D0319D9}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
+  <autoFilter ref="H2:I6" xr:uid="{3B828A40-5D49-4C6E-B738-9E23A4F2A28E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6BF6A46E-0038-4F20-8A33-B2618E596346}" name="department"/>
-    <tableColumn id="2" xr3:uid="{130EA08D-3DF1-4B74-934E-9A6C4F3764E0}" name="phone"/>
+    <tableColumn id="1" xr3:uid="{BA9FDA65-E6BD-4BCC-92AB-D7E7B116AC13}" name="department"/>
+    <tableColumn id="2" xr3:uid="{89A83B02-3923-4410-91F9-9154DF12B278}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830E9668-4C11-4380-A169-BCA6659737A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D36C313-5646-401F-81DE-C426845244D8}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_08_tables.xlsx
+++ b/examples/XlsxPeasant_08_tables.xlsx
@@ -198,26 +198,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6C7C19B-8235-4BAB-936B-ED0178D9B951}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
-  <autoFilter ref="A1:F11" xr:uid="{AE3EDA45-1745-4E6A-B152-C7BEB1C688F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{578CE8FD-9FAE-45BA-9843-2FF8EB885CFD}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
+  <autoFilter ref="A1:F11" xr:uid="{7E2486B4-2B37-4890-B166-1AAB4DBBC38B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D6F83575-5086-4A10-AB42-72E8AF64BED0}" name="first name"/>
-    <tableColumn id="2" xr3:uid="{EC2F71AD-4FFE-4D96-9A50-F26E4937EC66}" name="surname"/>
-    <tableColumn id="3" xr3:uid="{C794074C-838A-4BC7-90BB-9E3D09676FF5}" name="department"/>
-    <tableColumn id="4" xr3:uid="{5A2E3D35-519A-4E90-9D0F-8E19C8D70D3C}" name="age"/>
-    <tableColumn id="5" xr3:uid="{8578B015-DB46-4BAC-9700-AC329DA19FC4}" name="exam"/>
-    <tableColumn id="6" xr3:uid="{E7737F58-CB06-4893-B5AE-B0EBD81CD330}" name="readiness"/>
+    <tableColumn id="1" xr3:uid="{8BCC38EA-303B-4FB2-B38A-F90D00DB492A}" name="first name"/>
+    <tableColumn id="2" xr3:uid="{048150DF-2834-4FF0-B774-D82EAA1AE6EF}" name="surname"/>
+    <tableColumn id="3" xr3:uid="{DA6A458E-A044-4FEB-AD5D-C08F0D55CD7E}" name="department"/>
+    <tableColumn id="4" xr3:uid="{56225855-E215-49A5-83C6-621457A648A8}" name="age"/>
+    <tableColumn id="5" xr3:uid="{F3795CD0-C50C-4A73-A9B9-03BB0D2B8E11}" name="exam"/>
+    <tableColumn id="6" xr3:uid="{75541AAD-79A6-4460-9949-64CBF5A4380F}" name="readiness"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31A50489-85D5-4860-BB9E-DA958D0319D9}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
-  <autoFilter ref="H2:I6" xr:uid="{3B828A40-5D49-4C6E-B738-9E23A4F2A28E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7483117C-74EB-4077-9FAC-91DFEE2BB527}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
+  <autoFilter ref="H2:I6" xr:uid="{577A1611-5B68-4971-A579-E482A0E9F178}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BA9FDA65-E6BD-4BCC-92AB-D7E7B116AC13}" name="department"/>
-    <tableColumn id="2" xr3:uid="{89A83B02-3923-4410-91F9-9154DF12B278}" name="phone"/>
+    <tableColumn id="1" xr3:uid="{3C929ECF-87E4-4E38-BC52-4BA3F563F7B4}" name="department"/>
+    <tableColumn id="2" xr3:uid="{5D2AC9D3-0470-4963-92DB-FF3E7A86B95D}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D36C313-5646-401F-81DE-C426845244D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D7C5D1-0B33-4C2F-BEE2-FFEA1CEB6270}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_08_tables.xlsx
+++ b/examples/XlsxPeasant_08_tables.xlsx
@@ -198,26 +198,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{578CE8FD-9FAE-45BA-9843-2FF8EB885CFD}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
-  <autoFilter ref="A1:F11" xr:uid="{7E2486B4-2B37-4890-B166-1AAB4DBBC38B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E937820-609F-43EA-BF88-B131D048DCE2}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
+  <autoFilter ref="A1:F11" xr:uid="{C16F1C55-3AF5-4570-91E1-ECC3168C0AB6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8BCC38EA-303B-4FB2-B38A-F90D00DB492A}" name="first name"/>
-    <tableColumn id="2" xr3:uid="{048150DF-2834-4FF0-B774-D82EAA1AE6EF}" name="surname"/>
-    <tableColumn id="3" xr3:uid="{DA6A458E-A044-4FEB-AD5D-C08F0D55CD7E}" name="department"/>
-    <tableColumn id="4" xr3:uid="{56225855-E215-49A5-83C6-621457A648A8}" name="age"/>
-    <tableColumn id="5" xr3:uid="{F3795CD0-C50C-4A73-A9B9-03BB0D2B8E11}" name="exam"/>
-    <tableColumn id="6" xr3:uid="{75541AAD-79A6-4460-9949-64CBF5A4380F}" name="readiness"/>
+    <tableColumn id="1" xr3:uid="{EA7CFE35-B5D5-4C7F-B884-F6574283718C}" name="first name"/>
+    <tableColumn id="2" xr3:uid="{73F8B6FE-3219-4BA8-AC4E-2BF633A1B502}" name="surname"/>
+    <tableColumn id="3" xr3:uid="{832E7C1E-A35C-4210-9843-AE8F10860270}" name="department"/>
+    <tableColumn id="4" xr3:uid="{5826B498-3B39-442D-AE72-3EE5DD67EF2B}" name="age"/>
+    <tableColumn id="5" xr3:uid="{79459BAE-C975-42D3-9D38-67C2C8281F44}" name="exam"/>
+    <tableColumn id="6" xr3:uid="{3CF725C9-CBE6-48DB-A2D2-C731476118B9}" name="readiness"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7483117C-74EB-4077-9FAC-91DFEE2BB527}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
-  <autoFilter ref="H2:I6" xr:uid="{577A1611-5B68-4971-A579-E482A0E9F178}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67DB5A56-F52A-438C-B15B-4095D19DA41C}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
+  <autoFilter ref="H2:I6" xr:uid="{F6416E90-62E8-4996-B85E-621E3E964C6D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3C929ECF-87E4-4E38-BC52-4BA3F563F7B4}" name="department"/>
-    <tableColumn id="2" xr3:uid="{5D2AC9D3-0470-4963-92DB-FF3E7A86B95D}" name="phone"/>
+    <tableColumn id="1" xr3:uid="{B0497E2D-9E14-47C5-8DB3-31B977C3A799}" name="department"/>
+    <tableColumn id="2" xr3:uid="{7DF0F40A-C79B-473D-8BFB-35A0D98A389B}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D7C5D1-0B33-4C2F-BEE2-FFEA1CEB6270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980177CD-F793-4819-A04E-1B5C4E1DB1B7}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_08_tables.xlsx
+++ b/examples/XlsxPeasant_08_tables.xlsx
@@ -198,26 +198,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E937820-609F-43EA-BF88-B131D048DCE2}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
-  <autoFilter ref="A1:F11" xr:uid="{C16F1C55-3AF5-4570-91E1-ECC3168C0AB6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{397CB450-309E-4EEB-8E27-90A3E6105BBF}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
+  <autoFilter ref="A1:F11" xr:uid="{48D2B319-66D4-48B5-85E6-45442467C4EF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EA7CFE35-B5D5-4C7F-B884-F6574283718C}" name="first name"/>
-    <tableColumn id="2" xr3:uid="{73F8B6FE-3219-4BA8-AC4E-2BF633A1B502}" name="surname"/>
-    <tableColumn id="3" xr3:uid="{832E7C1E-A35C-4210-9843-AE8F10860270}" name="department"/>
-    <tableColumn id="4" xr3:uid="{5826B498-3B39-442D-AE72-3EE5DD67EF2B}" name="age"/>
-    <tableColumn id="5" xr3:uid="{79459BAE-C975-42D3-9D38-67C2C8281F44}" name="exam"/>
-    <tableColumn id="6" xr3:uid="{3CF725C9-CBE6-48DB-A2D2-C731476118B9}" name="readiness"/>
+    <tableColumn id="1" xr3:uid="{307F572F-458C-47C5-812A-2F8654263A2A}" name="first name"/>
+    <tableColumn id="2" xr3:uid="{9BC08466-7A3B-4EC1-B3CD-6354F68405C1}" name="surname"/>
+    <tableColumn id="3" xr3:uid="{6FB4AB8C-635D-4073-993C-0D0A8120855B}" name="department"/>
+    <tableColumn id="4" xr3:uid="{2A3C92F3-DB32-4507-AD16-47D77B27B34C}" name="age"/>
+    <tableColumn id="5" xr3:uid="{3EFB8950-AC81-4313-AAC2-DCDFD184F56A}" name="exam"/>
+    <tableColumn id="6" xr3:uid="{F87CF1ED-6034-42F8-8B5E-F4103FF825F6}" name="readiness"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67DB5A56-F52A-438C-B15B-4095D19DA41C}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
-  <autoFilter ref="H2:I6" xr:uid="{F6416E90-62E8-4996-B85E-621E3E964C6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99EFD1D5-FAF5-4D60-ACFA-D0D5802AB540}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
+  <autoFilter ref="H2:I6" xr:uid="{C3F16A2E-E7D7-4EB9-A2D2-28651089880E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B0497E2D-9E14-47C5-8DB3-31B977C3A799}" name="department"/>
-    <tableColumn id="2" xr3:uid="{7DF0F40A-C79B-473D-8BFB-35A0D98A389B}" name="phone"/>
+    <tableColumn id="1" xr3:uid="{F676B398-D352-4855-BF44-943183D263C2}" name="department"/>
+    <tableColumn id="2" xr3:uid="{FB2D84DD-A2EE-4A6A-A237-7ABE0285DF6E}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980177CD-F793-4819-A04E-1B5C4E1DB1B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F2E5DE-953C-4508-8944-5A733B8CD06A}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_08_tables.xlsx
+++ b/examples/XlsxPeasant_08_tables.xlsx
@@ -198,26 +198,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{397CB450-309E-4EEB-8E27-90A3E6105BBF}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
-  <autoFilter ref="A1:F11" xr:uid="{48D2B319-66D4-48B5-85E6-45442467C4EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{338882F7-32B4-45E8-B790-9E9CBA33A19D}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
+  <autoFilter ref="A1:F11" xr:uid="{305D5C64-8866-4F8D-BFF2-73DF516E2160}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{307F572F-458C-47C5-812A-2F8654263A2A}" name="first name"/>
-    <tableColumn id="2" xr3:uid="{9BC08466-7A3B-4EC1-B3CD-6354F68405C1}" name="surname"/>
-    <tableColumn id="3" xr3:uid="{6FB4AB8C-635D-4073-993C-0D0A8120855B}" name="department"/>
-    <tableColumn id="4" xr3:uid="{2A3C92F3-DB32-4507-AD16-47D77B27B34C}" name="age"/>
-    <tableColumn id="5" xr3:uid="{3EFB8950-AC81-4313-AAC2-DCDFD184F56A}" name="exam"/>
-    <tableColumn id="6" xr3:uid="{F87CF1ED-6034-42F8-8B5E-F4103FF825F6}" name="readiness"/>
+    <tableColumn id="1" xr3:uid="{09652FB8-67AE-4A1D-9E05-A2D2D562B2C1}" name="first name"/>
+    <tableColumn id="2" xr3:uid="{DF575F51-8D66-41E3-8280-0A11B8CF3146}" name="surname"/>
+    <tableColumn id="3" xr3:uid="{C67033CE-06DB-4874-9994-1BBD0E1BAA86}" name="department"/>
+    <tableColumn id="4" xr3:uid="{EC6EB004-84E6-4CBB-AC12-641F7096923D}" name="age"/>
+    <tableColumn id="5" xr3:uid="{66FE84C4-0F3A-46DD-B69B-FE9DDD64CD1B}" name="exam"/>
+    <tableColumn id="6" xr3:uid="{585EEDA1-857C-4696-87D7-5A1E6FE2FFCD}" name="readiness"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99EFD1D5-FAF5-4D60-ACFA-D0D5802AB540}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
-  <autoFilter ref="H2:I6" xr:uid="{C3F16A2E-E7D7-4EB9-A2D2-28651089880E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2B2846F-08BF-4746-AC01-0AEBD165A7E1}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
+  <autoFilter ref="H2:I6" xr:uid="{2BC36C8E-3451-4CEA-B6C6-2053D29AF898}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F676B398-D352-4855-BF44-943183D263C2}" name="department"/>
-    <tableColumn id="2" xr3:uid="{FB2D84DD-A2EE-4A6A-A237-7ABE0285DF6E}" name="phone"/>
+    <tableColumn id="1" xr3:uid="{E222DD07-F738-42CD-ADC8-8A28FCE55E40}" name="department"/>
+    <tableColumn id="2" xr3:uid="{37224E34-BBF4-4DCC-9C2F-4B31118422C0}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F2E5DE-953C-4508-8944-5A733B8CD06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07FD27B-EFEC-422F-AD22-0546F83D747F}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
